--- a/docs/shrcore/shr-core-Duration.xlsx
+++ b/docs/shrcore/shr-core-Duration.xlsx
@@ -571,7 +571,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL15"/>
+  <dimension ref="A1:AK15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>

--- a/docs/shrcore/shr-core-Duration.xlsx
+++ b/docs/shrcore/shr-core-Duration.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="131">
   <si>
     <t>Path</t>
   </si>
@@ -147,6 +147,15 @@
   </si>
   <si>
     <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Appropriate units for Duration.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/duration-units</t>
   </si>
   <si>
     <t>qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}
@@ -165,14 +174,14 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -188,14 +197,14 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
@@ -217,7 +226,7 @@
     <t>number</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Number-extension]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/obf/StructureDefinition/shr-core-Number-extension}
 </t>
   </si>
   <si>
@@ -227,7 +236,7 @@
     <t>units</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Units-extension]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/obf/StructureDefinition/shr-core-Units-extension}
 </t>
   </si>
   <si>
@@ -237,106 +246,94 @@
     <t>Duration.extension.id</t>
   </si>
   <si>
+    <t>Duration.extension.extension</t>
+  </si>
+  <si>
+    <t>Duration.extension.url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/obf/StructureDefinition/shr-core-Units-extension</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Duration.extension.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>Duration.extension.url</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t>Duration.extension.valueCodeableConcept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Units-extension"/&gt;</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Duration.extension.valueCoding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding {[]} {[]}
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>Duration.value</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal
 </t>
   </si>
   <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/duration-units</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>Duration.value</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decimal {[]} {[]}
+    <t>Numerical value (with implicit precision)</t>
+  </si>
+  <si>
+    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
+  </si>
+  <si>
+    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+  </si>
+  <si>
+    <t>Quantity.value</t>
+  </si>
+  <si>
+    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
+  </si>
+  <si>
+    <t>SN.2  / CQ - N/A</t>
+  </si>
+  <si>
+    <t>Duration.comparator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
-    <t>Numerical value (with implicit precision)</t>
-  </si>
-  <si>
-    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
-  </si>
-  <si>
-    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
-  </si>
-  <si>
-    <t>Precision is handled implicitly in almost all cases of measurement.</t>
-  </si>
-  <si>
-    <t>Quantity.value</t>
-  </si>
-  <si>
-    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
-  </si>
-  <si>
-    <t>SN.2  / CQ - N/A</t>
-  </si>
-  <si>
-    <t>Duration.comparator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code {[]} {[]}
-</t>
-  </si>
-  <si>
     <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
   </si>
   <si>
     <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
   </si>
   <si>
-    <t>This is labeled as "Is Modifier" because the comparator modifies the interpretation of the value significantly. If there is no comparator, then there is no modification of the value.</t>
-  </si>
-  <si>
     <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
   </si>
   <si>
@@ -349,7 +346,7 @@
     <t>How the Quantity should be understood and represented.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/quantity-comparator</t>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.0</t>
   </si>
   <si>
     <t>Quantity.comparator</t>
@@ -475,67 +472,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -580,7 +577,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="29.73828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.3515625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -590,7 +587,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="43.6640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="43.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -604,7 +601,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="52.97265625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="45.6640625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="51.1328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
@@ -792,13 +789,13 @@
         <v>38</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="Z2" t="s" s="2">
         <v>38</v>
@@ -815,27 +812,31 @@
       <c r="AD2" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="AE2" s="2"/>
+      <c r="AE2" t="s" s="2">
+        <v>37</v>
+      </c>
       <c r="AF2" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AG2" s="2"/>
+      <c r="AG2" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AH2" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -846,7 +847,7 @@
         <v>39</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>38</v>
@@ -858,13 +859,13 @@
         <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -915,13 +916,13 @@
         <v>38</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>38</v>
@@ -930,7 +931,7 @@
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -938,11 +939,11 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
@@ -961,16 +962,16 @@
         <v>38</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
@@ -1008,19 +1009,19 @@
         <v>38</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AC4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>39</v>
@@ -1035,7 +1036,7 @@
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -1043,10 +1044,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>38</v>
@@ -1056,7 +1057,7 @@
         <v>39</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>38</v>
@@ -1068,11 +1069,11 @@
         <v>38</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" t="s" s="2">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1123,7 +1124,7 @@
         <v>38</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>39</v>
@@ -1146,10 +1147,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>38</v>
@@ -1159,7 +1160,7 @@
         <v>39</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>38</v>
@@ -1171,11 +1172,11 @@
         <v>38</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" t="s" s="2">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1226,7 +1227,7 @@
         <v>38</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>39</v>
@@ -1249,7 +1250,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1260,7 +1261,7 @@
         <v>39</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>38</v>
@@ -1272,13 +1273,13 @@
         <v>38</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1329,13 +1330,13 @@
         <v>38</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>38</v>
@@ -1344,7 +1345,7 @@
         <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>38</v>
@@ -1352,11 +1353,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -1375,15 +1376,17 @@
         <v>38</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="M8" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>62</v>
+      </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
         <v>38</v>
@@ -1420,19 +1423,19 @@
         <v>38</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="AC8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>39</v>
@@ -1447,7 +1450,7 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
@@ -1463,10 +1466,10 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>38</v>
@@ -1486,14 +1489,16 @@
       <c r="L9" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="M9" s="2"/>
+      <c r="M9" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R9" t="s" s="2">
         <v>38</v>
@@ -1535,13 +1540,13 @@
         <v>38</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>38</v>
@@ -1550,7 +1555,7 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
@@ -1558,7 +1563,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1566,10 +1571,10 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>38</v>
@@ -1581,13 +1586,13 @@
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1614,11 +1619,11 @@
         <v>38</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="X10" s="2"/>
       <c r="Y10" t="s" s="2">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="Z10" t="s" s="2">
         <v>38</v>
@@ -1642,7 +1647,7 @@
         <v>39</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>38</v>
@@ -1651,7 +1656,7 @@
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>38</v>
@@ -1670,7 +1675,7 @@
         <v>39</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>38</v>
@@ -1749,7 +1754,7 @@
         <v>39</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>38</v>
@@ -1777,7 +1782,7 @@
         <v>39</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>38</v>
@@ -1797,85 +1802,83 @@
       <c r="L12" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="M12" s="2"/>
+      <c r="N12" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P12" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="O12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P12" t="s" s="2">
+      <c r="Q12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W12" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="Q12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W12" t="s" s="2">
+      <c r="X12" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE12" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="Z12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE12" t="s" s="2">
+      <c r="AF12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="AF12" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
+      <c r="AK12" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>110</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1886,7 +1889,7 @@
         <v>39</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>38</v>
@@ -1898,17 +1901,17 @@
         <v>89</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>38</v>
@@ -1957,30 +1960,30 @@
         <v>38</v>
       </c>
       <c r="AE13" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AF13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
+      <c r="AK13" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>117</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1991,7 +1994,7 @@
         <v>39</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>38</v>
@@ -2006,14 +2009,14 @@
         <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>38</v>
@@ -2062,30 +2065,30 @@
         <v>38</v>
       </c>
       <c r="AE14" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH14" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="AF14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH14" t="s" s="2">
+      <c r="AI14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="AI14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>124</v>
-      </c>
       <c r="AK14" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2096,7 +2099,7 @@
         <v>39</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>38</v>
@@ -2111,16 +2114,16 @@
         <v>99</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>38</v>
@@ -2169,25 +2172,25 @@
         <v>38</v>
       </c>
       <c r="AE15" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AF15" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="AK15" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
